--- a/nuon/instagram_posts_suzyunnee.xlsx
+++ b/nuon/instagram_posts_suzyunnee.xlsx
@@ -1788,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1935,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -2123,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2220,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2320,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2420,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -2614,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -2664,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -3002,7 +3002,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3149,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E49">
         <v>0</v>
